--- a/data/trans_camb/P28A_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 16,85</t>
+          <t>-17,78; 9,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 8,08</t>
+          <t>-21,3; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 9,36</t>
+          <t>-21,18; 3,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 28,74</t>
+          <t>2,35; 27,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 4,18</t>
+          <t>-8,62; 4,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 20,81</t>
+          <t>-4,02; 14,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 17,83</t>
+          <t>-2,04; 16,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 5,18</t>
+          <t>-12,18; 2,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 10,93</t>
+          <t>-8,61; 7,28</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>-36,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-46,32%</t>
+          <t>-64,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,88%</t>
+          <t>-65,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>396,95%</t>
+          <t>343,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>-45,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>245,91%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>114,12%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,9%</t>
+          <t>-57,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>-14,14%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 306,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 347,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,1; 214,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,61; —</t>
+          <t>-13,58; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,44; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 461,44</t>
+          <t>-32,68; 658,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,44; 259,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 299,31</t>
+          <t>-82,98; 352,36</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,36</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,71</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,09</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,29</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,3</t>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 17,02</t>
+          <t>-10,7; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -4,2</t>
+          <t>-10,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 0,33</t>
+          <t>-4,97; 7,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 7,75</t>
+          <t>-8,48; 10,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,5; -4,67</t>
+          <t>-13,73; 0,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,36; -5,84</t>
+          <t>-15,69; -1,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 8,49</t>
+          <t>-5,94; 4,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -6,72</t>
+          <t>-8,59; -0,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -4,79</t>
+          <t>-7,26; 1,53</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-72,46%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,65%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-79,81%</t>
+          <t>-73,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-87,28%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-17,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-87,85%</t>
+          <t>-80,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-81,31%</t>
+          <t>-58,56%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 346,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 95,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 84,84</t>
+          <t>-82,84; 550,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 82,75</t>
+          <t>-86,63; 277,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-97,13; -28,52</t>
+          <t>-100,0; 202,7</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-20,2</t>
+          <t>-16,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,76</t>
+          <t>-15,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,31</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,16</t>
+          <t>-9,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,4; -0,46</t>
+          <t>-15,58; 11,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -10,06</t>
+          <t>-27,66; -6,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,58; -12,09</t>
+          <t>-27,52; -6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 4,61</t>
+          <t>-11,3; 0,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,34; -5,84</t>
+          <t>-13,31; -2,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -1,79</t>
+          <t>-12,23; -0,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -0,73</t>
+          <t>-10,47; 2,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,78; -9,45</t>
+          <t>-15,73; -5,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -9,42</t>
+          <t>-15,47; -4,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-50,86%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-80,28%</t>
+          <t>-91,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-90,48%</t>
+          <t>-89,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-35,69%</t>
+          <t>-64,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-90,68%</t>
+          <t>-86,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-73,86%</t>
+          <t>-71,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-82,51%</t>
+          <t>-89,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-85,4%</t>
+          <t>-82,11%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 5,02</t>
+          <t>-66,0; 122,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-95,26; -35,93</t>
+          <t>-100,0; -29,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -38,96</t>
+          <t>-100,0; -27,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,17; 68,17</t>
+          <t>-100,0; 37,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -44,65</t>
+          <t>-100,0; 10,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 21,45</t>
+          <t>-100,0; 46,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,83; -4,46</t>
+          <t>-69,31; 37,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-94,35; -57,04</t>
+          <t>-100,0; -62,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-96,32; -51,13</t>
+          <t>-95,22; -40,61</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,02</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,88</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-7,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 2,47</t>
+          <t>-9,51; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -7,31</t>
+          <t>-13,53; -1,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -6,57</t>
+          <t>-14,93; -2,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 2,87</t>
+          <t>-11,56; 0,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,87; -3,35</t>
+          <t>-13,02; -1,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,02; -4,59</t>
+          <t>-13,4; -3,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,51</t>
+          <t>-8,46; 1,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -6,96</t>
+          <t>-11,25; -2,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,09; -7,56</t>
+          <t>-12,65; -4,18</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,57%</t>
+          <t>-13,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-94,24%</t>
+          <t>-83,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-93,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-41,65%</t>
+          <t>-70,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-88,73%</t>
+          <t>-85,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-40,69%</t>
+          <t>-43,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-92,27%</t>
+          <t>-84,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-95,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,59; 34,95</t>
+          <t>-80,48; 220,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,32</t>
+          <t>-100,0; 166,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -43,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 71,45</t>
+          <t>-100,0; 49,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,52</t>
+          <t>-100,0; 47,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 11,14</t>
+          <t>-81,41; 44,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -68,93</t>
+          <t>-100,0; -37,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -72,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-3,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 6,2</t>
+          <t>-10,72; 4,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,59; -3,29</t>
+          <t>-15,62; -2,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -1,58</t>
+          <t>-14,03; 0,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 5,04</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -2,4</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,56; -2,42</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 2,91</t>
+          <t>-7,11; 2,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -4,53</t>
+          <t>-9,15; -1,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -3,83</t>
+          <t>-8,66; -0,68</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-27,71%</t>
+          <t>-43,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1612,12 +1612,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-87,33%</t>
+          <t>-78,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-62,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-40,26%</t>
+          <t>-52,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-92,46%</t>
+          <t>-82,52%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,55; 174,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,47; 64,96</t>
+          <t>-100,0; 174,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -42,93</t>
+          <t>-100,0; 108,78</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 12,31</t>
+          <t>-12,76; 7,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 2,97</t>
+          <t>-17,51; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 4,05</t>
+          <t>-13,21; 5,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 7,57</t>
+          <t>-4,83; 3,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 0,0</t>
+          <t>-7,17; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 0,0</t>
+          <t>-5,9; 2,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-60,16%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-54,39%</t>
+          <t>-50,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,2%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-80,4%</t>
-        </is>
-      </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-77,01%</t>
+          <t>-51,56%</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 651,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,83</t>
+          <t>-6,26; 2,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -7,06</t>
+          <t>-10,88; -4,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,15</t>
+          <t>-10,02; -2,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,63</t>
+          <t>-3,57; 2,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -5,89</t>
+          <t>-7,03; -2,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,49</t>
+          <t>-6,37; -1,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,24</t>
+          <t>-3,9; 1,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -7,46</t>
+          <t>-7,79; -3,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,68</t>
+          <t>-7,09; -2,67</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>-24,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-81,46%</t>
+          <t>-87,61%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-75,53%</t>
+          <t>-75,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-85,91%</t>
+          <t>-79,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-62,35%</t>
+          <t>-66,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-83,07%</t>
+          <t>-84,3%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-70,63%</t>
+          <t>-71,47%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 18,92</t>
+          <t>-58,26; 39,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -58,7</t>
+          <t>-97,32; -58,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -51,89</t>
+          <t>-91,71; -31,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 42,62</t>
+          <t>-52,85; 68,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-94,81; -67,6</t>
+          <t>-94,56; -37,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -26,03</t>
+          <t>-88,79; -17,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 11,58</t>
+          <t>-47,03; 22,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-91,24; -67,79</t>
+          <t>-94,67; -68,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-81,88; -53,65</t>
+          <t>-86,86; -47,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
